--- a/airbnb_case_study/review_summary_table.xlsx
+++ b/airbnb_case_study/review_summary_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>avg_availability_365</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg_estimated_revenue_l365d</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +483,9 @@
       <c r="E2" t="n">
         <v>159.6878577884905</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,6 +504,9 @@
       </c>
       <c r="E3" t="n">
         <v>123.1269527573875</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1090024</v>
       </c>
     </row>
   </sheetData>
